--- a/collectionList.xlsx
+++ b/collectionList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Records</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>UWM. Peck School of the Arts. Office of the Dean.</t>
+  </si>
+  <si>
+    <t>http://www.uwm.edu/letsci</t>
+  </si>
+  <si>
+    <t>http://www.uwm.edu/arts/dance</t>
+  </si>
+  <si>
+    <t>http://www.uwm.edu/arts</t>
   </si>
 </sst>
 </file>
@@ -982,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD174"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1074,12 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>3368</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1091,6 +1106,12 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>3368</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1116,6 +1137,12 @@
       </c>
       <c r="I4" t="s">
         <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3368</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -1128,10 +1155,15 @@
       <c r="L170" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/collectionList.xlsx
+++ b/collectionList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Records</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>UWM. Peck School of the Arts. Office of the Dean.</t>
-  </si>
-  <si>
-    <t>http://www.uwm.edu/letsci</t>
-  </si>
-  <si>
-    <t>http://www.uwm.edu/arts/dance</t>
-  </si>
-  <si>
-    <t>http://www.uwm.edu/arts</t>
   </si>
 </sst>
 </file>
@@ -991,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1065,6 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>3368</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1106,12 +1091,6 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>3368</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1137,12 +1116,6 @@
       </c>
       <c r="I4" t="s">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3368</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -1155,15 +1128,10 @@
       <c r="L170" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>